--- a/РАБОЧИЙ СТОЛ/Новороссийск/Новороссийск КИ.xlsx
+++ b/РАБОЧИЙ СТОЛ/Новороссийск/Новороссийск КИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56B78A-E408-4F11-A615-95800B79EE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72092BAA-96D8-4AC2-8ABE-0EE144C83452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>сроки</t>
-  </si>
-  <si>
-    <t>НВ</t>
-  </si>
-  <si>
-    <t>Донецк, Луганск</t>
   </si>
 </sst>
 </file>
@@ -594,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,13 +601,15 @@
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" customWidth="1"/>
-    <col min="10" max="13" width="8.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="49.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="8.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="39.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,34 +629,37 @@
         <v>35</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,26 +674,29 @@
         <v>327</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8">
+        <v>327</v>
+      </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="18">
+      <c r="P2" s="18">
         <v>740</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -710,33 +712,36 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8">
+        <v>200</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>65.2</v>
       </c>
-      <c r="K3" s="18">
+      <c r="L3" s="18">
         <v>199.2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>89.807600000000008</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>50</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>942.4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -753,32 +758,35 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="8">
+        <v>300</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>159.19999999999999</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>268.60000000000002</v>
       </c>
-      <c r="L4" s="18">
+      <c r="M4" s="18">
         <v>547</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>81.2</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>610.4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -795,30 +803,33 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="8">
+        <v>400</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>114.4</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>238.6</v>
       </c>
-      <c r="L5" s="18">
+      <c r="M5" s="18">
         <v>319.2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -833,28 +844,29 @@
         <v>361</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="F6" s="8">
+        <v>180</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>181</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -869,26 +881,29 @@
         <v>406</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>406</v>
+      </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="10"/>
+      <c r="O7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="18">
+      <c r="P7" s="18">
         <v>1032.4000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -905,32 +920,35 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="8">
+        <v>342</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K8" s="10">
         <v>31.4</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>44.512199999999993</v>
       </c>
-      <c r="L8" s="18">
+      <c r="M8" s="18">
         <v>110</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>49.8</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>1023.4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -945,26 +963,29 @@
         <v>224</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>224</v>
+      </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="18">
+      <c r="P9" s="18">
         <v>396.4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -979,34 +1000,37 @@
         <v>1046</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>1046</v>
+      </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <v>5.6</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>27</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>20.399999999999999</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>6.6</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="O10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="18">
+      <c r="P10" s="18">
         <v>113.6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1022,25 +1046,28 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="22">
+        <v>46</v>
+      </c>
+      <c r="H11" s="22">
+        <v>50</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="J11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P11" s="21"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1056,12 +1083,13 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C12" xr:uid="{DD07DAE8-C794-4ED8-8519-D6491F9037B7}"/>
